--- a/utils/recipes.xlsx
+++ b/utils/recipes.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="294">
   <si>
     <t>title</t>
   </si>
@@ -489,9 +489,6 @@
     <t>4 cups-water; 4 cubes-chicken broth; 2-egg; 1 teaspoon-parsley,dried; 1 tablespoon-onion powder,; 1 tablespoon-cornstarch</t>
   </si>
   <si>
-    <t>20m</t>
-  </si>
-  <si>
     <t>In a medium saucepan, combine water, bouillon, and parsley and onion flakes.  Bring to a boil.
  Lightly beat eggs together. Gradually stir into soup.
  Remove about half a cup of the soup.  Stir in cornstarch until there are no lumps, and return to the soup.  Boil until soup thickens.</t>
@@ -608,9 +605,6 @@
   </si>
   <si>
     <t>3/4 pound-beef steak,boneless tender , rib eye, sirloin or flank; 1 tablespoon-cornstarch; 3 tablespoons-soy sauce,kikkoman preferably, divided; 1 clove-garlic,large,minced; 1/2 teaspoon-sugar; 1 pound-broccoli,fresh, trimmed; 4 teaspoons-cornstarch; 1/2 teaspoon-red pepper flake,crushed; 3 tablespoons-vegetable oil, divided; 1-onion flake,medium; 2 teaspoons-rice vinegar,kikkoman preferably, seasoned</t>
-  </si>
-  <si>
-    <t>35m</t>
   </si>
   <si>
     <t>Cut beef across grain into thin slices. Combine 1 Tbsp. each cornstarch and soy sauce with garlic and sugar in medium bowl; stir in beef. Let stand 10 minutes.
@@ -1145,7 +1139,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -1165,6 +1159,8 @@
     </font>
     <font>
       <b/>
+      <color theme="1"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <color rgb="FF000000"/>
@@ -1180,7 +1176,6 @@
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
     </font>
-    <font/>
     <font>
       <u/>
       <sz val="11.0"/>
@@ -1216,33 +1211,24 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="top"/>
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -1512,7 +1498,7 @@
       <c r="D2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F2" s="4" t="s">
@@ -1521,10 +1507,10 @@
       <c r="G2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="5" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1535,13 +1521,13 @@
       <c r="B3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>21</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="7" t="s">
         <v>23</v>
       </c>
       <c r="F3" s="5" t="s">
@@ -1550,10 +1536,10 @@
       <c r="G3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="5" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1564,13 +1550,13 @@
       <c r="B4" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="8" t="s">
         <v>27</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="7" t="s">
         <v>29</v>
       </c>
       <c r="F4" s="5" t="s">
@@ -1579,10 +1565,10 @@
       <c r="G4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="5" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1593,13 +1579,13 @@
       <c r="B5" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="8" t="s">
         <v>34</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="7" t="s">
         <v>36</v>
       </c>
       <c r="F5" s="5" t="s">
@@ -1608,10 +1594,10 @@
       <c r="G5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="I5" s="5" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1622,13 +1608,13 @@
       <c r="B6" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="8" t="s">
         <v>40</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="7" t="s">
         <v>42</v>
       </c>
       <c r="F6" s="5" t="s">
@@ -1637,10 +1623,10 @@
       <c r="G6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="H6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="I6" s="8" t="s">
+      <c r="I6" s="5" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1651,13 +1637,13 @@
       <c r="B7" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="8" t="s">
         <v>46</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="7" t="s">
         <v>48</v>
       </c>
       <c r="F7" s="5" t="s">
@@ -1666,10 +1652,10 @@
       <c r="G7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="I7" s="8" t="s">
+      <c r="I7" s="5" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1680,13 +1666,13 @@
       <c r="B8" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="8" t="s">
         <v>52</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="7" t="s">
         <v>54</v>
       </c>
       <c r="F8" s="5" t="s">
@@ -1695,10 +1681,10 @@
       <c r="G8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="H8" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="I8" s="8" t="s">
+      <c r="I8" s="5" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1709,13 +1695,13 @@
       <c r="B9" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="8" t="s">
         <v>59</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="7" t="s">
         <v>29</v>
       </c>
       <c r="F9" s="5" t="s">
@@ -1724,10 +1710,10 @@
       <c r="G9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="H9" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="I9" s="8" t="s">
+      <c r="I9" s="5" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1738,13 +1724,13 @@
       <c r="B10" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="8" t="s">
         <v>65</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="7" t="s">
         <v>36</v>
       </c>
       <c r="F10" s="5" t="s">
@@ -1753,10 +1739,10 @@
       <c r="G10" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="H10" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="I10" s="8" t="s">
+      <c r="I10" s="5" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1767,13 +1753,13 @@
       <c r="B11" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="8" t="s">
         <v>72</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="7" t="s">
         <v>42</v>
       </c>
       <c r="F11" s="5" t="s">
@@ -1782,10 +1768,10 @@
       <c r="G11" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H11" s="7" t="s">
+      <c r="H11" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="I11" s="7" t="s">
+      <c r="I11" s="5" t="s">
         <v>75</v>
       </c>
     </row>
@@ -1796,13 +1782,13 @@
       <c r="B12" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="8" t="s">
         <v>78</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="7" t="s">
         <v>48</v>
       </c>
       <c r="F12" s="5" t="s">
@@ -1811,10 +1797,10 @@
       <c r="G12" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H12" s="7" t="s">
+      <c r="H12" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="I12" s="7" t="s">
+      <c r="I12" s="5" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1825,13 +1811,13 @@
       <c r="B13" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="8" t="s">
         <v>83</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="7" t="s">
         <v>85</v>
       </c>
       <c r="F13" s="5" t="s">
@@ -1840,10 +1826,10 @@
       <c r="G13" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H13" s="8" t="s">
+      <c r="H13" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="I13" s="7" t="s">
+      <c r="I13" s="5" t="s">
         <v>75</v>
       </c>
     </row>
@@ -1854,13 +1840,13 @@
       <c r="B14" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="8" t="s">
         <v>90</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="7" t="s">
         <v>54</v>
       </c>
       <c r="F14" s="5" t="s">
@@ -1869,10 +1855,10 @@
       <c r="G14" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H14" s="8" t="s">
+      <c r="H14" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="I14" s="7" t="s">
+      <c r="I14" s="5" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1883,13 +1869,13 @@
       <c r="B15" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="8" t="s">
         <v>95</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="7" t="s">
         <v>42</v>
       </c>
       <c r="F15" s="5" t="s">
@@ -1898,10 +1884,10 @@
       <c r="G15" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H15" s="7" t="s">
+      <c r="H15" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="I15" s="7" t="s">
+      <c r="I15" s="5" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1912,13 +1898,13 @@
       <c r="B16" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="8" t="s">
         <v>100</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="7" t="s">
         <v>48</v>
       </c>
       <c r="F16" s="5" t="s">
@@ -1927,10 +1913,10 @@
       <c r="G16" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H16" s="8" t="s">
+      <c r="H16" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="I16" s="7" t="s">
+      <c r="I16" s="5" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1941,13 +1927,13 @@
       <c r="B17" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="8" t="s">
         <v>105</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="7" t="s">
         <v>29</v>
       </c>
       <c r="F17" s="5" t="s">
@@ -1956,10 +1942,10 @@
       <c r="G17" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H17" s="7" t="s">
+      <c r="H17" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="I17" s="7" t="s">
+      <c r="I17" s="5" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1970,13 +1956,13 @@
       <c r="B18" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="8" t="s">
         <v>110</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="7" t="s">
         <v>112</v>
       </c>
       <c r="F18" s="5" t="s">
@@ -1985,10 +1971,10 @@
       <c r="G18" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H18" s="7" t="s">
+      <c r="H18" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="I18" s="7" t="s">
+      <c r="I18" s="5" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1999,13 +1985,13 @@
       <c r="B19" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="8" t="s">
         <v>116</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F19" s="5" t="s">
@@ -2014,10 +2000,10 @@
       <c r="G19" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H19" s="8" t="s">
+      <c r="H19" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="I19" s="7" t="s">
+      <c r="I19" s="5" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2028,13 +2014,13 @@
       <c r="B20" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="8" t="s">
         <v>121</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="7" t="s">
         <v>123</v>
       </c>
       <c r="F20" s="5" t="s">
@@ -2043,10 +2029,10 @@
       <c r="G20" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H20" s="8" t="s">
+      <c r="H20" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="I20" s="7" t="s">
+      <c r="I20" s="5" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2057,900 +2043,900 @@
       <c r="B21" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="8" t="s">
         <v>127</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F21" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="F21" s="5" t="s">
-        <v>130</v>
-      </c>
       <c r="G21" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H21" s="8" t="s">
+      <c r="H21" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="I21" s="7" t="s">
+      <c r="I21" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B22" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="C22" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="D22" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="E22" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F22" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="E22" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>135</v>
-      </c>
       <c r="G22" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H22" s="8" t="s">
+      <c r="H22" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="I22" s="7" t="s">
+      <c r="I22" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B23" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="C23" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="D23" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="E23" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="F23" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="F23" s="5" t="s">
-        <v>141</v>
-      </c>
       <c r="G23" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H23" s="7" t="s">
+      <c r="H23" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="I23" s="7" t="s">
+      <c r="I23" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B24" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="C24" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="D24" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="E24" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="F24" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="F24" s="5" t="s">
-        <v>147</v>
-      </c>
       <c r="G24" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H24" s="7" t="s">
+      <c r="H24" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="I24" s="7" t="s">
+      <c r="I24" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B25" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="C25" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="D25" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="E25" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="E25" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>152</v>
-      </c>
       <c r="G25" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H25" s="7" t="s">
+      <c r="H25" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="I25" s="7" t="s">
+      <c r="I25" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B26" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="C26" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="D26" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="E26" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F26" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="E26" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>157</v>
-      </c>
       <c r="G26" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H26" s="7" t="s">
+      <c r="H26" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="I26" s="7" t="s">
+      <c r="I26" s="5" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B27" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="C27" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="D27" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="E27" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F27" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="E27" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>163</v>
-      </c>
       <c r="G27" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H27" s="7" t="s">
+      <c r="H27" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="I27" s="7" t="s">
+      <c r="I27" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C28" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="D28" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="E28" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F28" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="D28" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>168</v>
-      </c>
       <c r="G28" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H28" s="7" t="s">
+      <c r="H28" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="I28" s="7" t="s">
+      <c r="I28" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C29" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="D29" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="E29" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F29" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="D29" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>173</v>
-      </c>
       <c r="G29" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H29" s="7" t="s">
+      <c r="H29" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="I29" s="7" t="s">
+      <c r="I29" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C30" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="D30" s="4" t="s">
         <v>175</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>177</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>29</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G30" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H30" s="7" t="s">
+      <c r="H30" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="I30" s="7" t="s">
+      <c r="I30" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C31" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="D31" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="E31" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="F31" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="E31" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>184</v>
-      </c>
       <c r="G31" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H31" s="7" t="s">
+      <c r="H31" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="I31" s="7" t="s">
+      <c r="I31" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="C32" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="D32" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="E32" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="F32" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="D32" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>189</v>
-      </c>
       <c r="G32" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H32" s="8" t="s">
+      <c r="H32" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="I32" s="7" t="s">
+      <c r="I32" s="5" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="C33" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="D33" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="C33" s="9" t="s">
+      <c r="E33" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="F33" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="E33" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>195</v>
-      </c>
       <c r="G33" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H33" s="7" t="s">
+      <c r="H33" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="I33" s="7" t="s">
+      <c r="I33" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="C34" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="D34" s="4" t="s">
         <v>197</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>199</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>112</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G34" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H34" s="7" t="s">
+      <c r="H34" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="I34" s="7" t="s">
+      <c r="I34" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="C35" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="D35" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="C35" s="9" t="s">
+      <c r="E35" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="F35" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="E35" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="F35" s="5" t="s">
-        <v>206</v>
-      </c>
       <c r="G35" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H35" s="7" t="s">
+      <c r="H35" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="I35" s="7" t="s">
+      <c r="I35" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="C36" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="D36" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="C36" s="9" t="s">
+      <c r="E36" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="F36" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="D36" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="F36" s="5" t="s">
-        <v>211</v>
-      </c>
       <c r="G36" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H36" s="7" t="s">
+      <c r="H36" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="I36" s="7" t="s">
+      <c r="I36" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="C37" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="D37" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="C37" s="9" t="s">
+      <c r="E37" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="F37" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="E37" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="F37" s="5" t="s">
-        <v>217</v>
-      </c>
       <c r="G37" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H37" s="7" t="s">
+      <c r="H37" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="I37" s="7" t="s">
+      <c r="I37" s="5" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="C38" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="D38" s="4" t="s">
         <v>219</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>220</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>221</v>
       </c>
       <c r="E38" s="5" t="s">
         <v>54</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G38" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H38" s="8" t="s">
+      <c r="H38" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="I38" s="7" t="s">
+      <c r="I38" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="C39" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="D39" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="C39" s="9" t="s">
+      <c r="E39" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="F39" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="E39" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="F39" s="5" t="s">
-        <v>228</v>
-      </c>
       <c r="G39" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H39" s="7" t="s">
+      <c r="H39" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="I39" s="7" t="s">
+      <c r="I39" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="C40" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="D40" s="4" t="s">
         <v>230</v>
-      </c>
-      <c r="C40" s="9" t="s">
-        <v>231</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>232</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>29</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G40" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H40" s="7" t="s">
+      <c r="H40" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="I40" s="7" t="s">
+      <c r="I40" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="C41" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="D41" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="C41" s="9" t="s">
+      <c r="E41" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="D41" s="4" t="s">
+      <c r="F41" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="E41" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="F41" s="5" t="s">
-        <v>239</v>
-      </c>
       <c r="G41" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H41" s="7" t="s">
+      <c r="H41" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="I41" s="7" t="s">
+      <c r="I41" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="C42" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="D42" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="C42" s="9" t="s">
+      <c r="E42" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="F42" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="D42" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="F42" s="5" t="s">
-        <v>244</v>
-      </c>
       <c r="G42" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H42" s="7" t="s">
+      <c r="H42" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="I42" s="7" t="s">
+      <c r="I42" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="C43" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="D43" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="C43" s="9" t="s">
+      <c r="E43" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="D43" s="4" t="s">
+      <c r="F43" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="E43" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="F43" s="5" t="s">
-        <v>250</v>
-      </c>
       <c r="G43" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H43" s="7" t="s">
+      <c r="H43" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="I43" s="7" t="s">
+      <c r="I43" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="C44" s="8" t="s">
         <v>251</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="D44" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="C44" s="9" t="s">
+      <c r="E44" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="D44" s="5" t="s">
+      <c r="F44" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="E44" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="F44" s="5" t="s">
-        <v>256</v>
-      </c>
       <c r="G44" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H44" s="7" t="s">
+      <c r="H44" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="I44" s="7" t="s">
+      <c r="I44" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="C45" s="8" t="s">
         <v>257</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="D45" s="4" t="s">
         <v>258</v>
-      </c>
-      <c r="C45" s="9" t="s">
-        <v>259</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>260</v>
       </c>
       <c r="E45" s="5" t="s">
         <v>36</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G45" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H45" s="7" t="s">
+      <c r="H45" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="I45" s="7" t="s">
+      <c r="I45" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="C46" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="D46" s="5" t="s">
         <v>263</v>
-      </c>
-      <c r="C46" s="9" t="s">
-        <v>264</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>265</v>
       </c>
       <c r="E46" s="5" t="s">
         <v>54</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G46" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H46" s="7" t="s">
+      <c r="H46" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="I46" s="7" t="s">
+      <c r="I46" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="C47" s="8" t="s">
         <v>267</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="D47" s="4" t="s">
         <v>268</v>
-      </c>
-      <c r="C47" s="9" t="s">
-        <v>269</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>270</v>
       </c>
       <c r="E47" s="5" t="s">
         <v>42</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G47" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H47" s="7" t="s">
+      <c r="H47" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="I47" s="7" t="s">
+      <c r="I47" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="C48" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="D48" s="4" t="s">
         <v>273</v>
-      </c>
-      <c r="C48" s="9" t="s">
-        <v>274</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>275</v>
       </c>
       <c r="E48" s="5" t="s">
         <v>42</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="H48" s="5"/>
       <c r="I48" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="J48" s="7" t="s">
-        <v>278</v>
+      <c r="J48" s="5" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="C49" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="B49" s="5" t="s">
+      <c r="D49" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="C49" s="9" t="s">
+      <c r="E49" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="D49" s="4" t="s">
+      <c r="F49" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="E49" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="F49" s="4" t="s">
-        <v>284</v>
-      </c>
       <c r="G49" s="5" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="H49" s="5"/>
       <c r="I49" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="J49" s="7" t="s">
-        <v>278</v>
+      <c r="J49" s="5" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="C50" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="D50" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="C50" s="9" t="s">
+      <c r="E50" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="D50" s="4" t="s">
+      <c r="F50" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="E50" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="F50" s="4" t="s">
-        <v>290</v>
-      </c>
       <c r="G50" s="5" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="H50" s="5"/>
       <c r="I50" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="J50" s="7" t="s">
-        <v>278</v>
+      <c r="J50" s="5" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="C51" s="8" t="s">
         <v>291</v>
       </c>
-      <c r="B51" s="5" t="s">
+      <c r="D51" s="4" t="s">
         <v>292</v>
-      </c>
-      <c r="C51" s="9" t="s">
-        <v>293</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>294</v>
       </c>
       <c r="E51" s="5" t="s">
         <v>29</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="H51" s="5"/>
       <c r="I51" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="J51" s="7" t="s">
-        <v>278</v>
+      <c r="J51" s="5" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="52" ht="15.75" customHeight="1">

--- a/utils/recipes.xlsx
+++ b/utils/recipes.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="300">
   <si>
     <t>title</t>
   </si>
@@ -1134,12 +1134,37 @@
 Stir the chickpea flour and clarified butter together in a saucepan over medium-low heat until the mixture smells toasty, about 10 minutes. Set aside until cool enough to handle.
 Stir in the sugar, pistachios, and cashews until evenly mixed. Form the mixture into small balls the size of large cherries. Use some pressure when forming the balls so they don't come apart.</t>
   </si>
+  <si>
+    <t>Rasgullas</t>
+  </si>
+  <si>
+    <t>"If you are intimidated by the idea of making rasgullas at home, please do not be any longer. I was too, until one day I tried it and realized I was worried for no reason all these years. They are quite easy and super quick to make. Give these a try."</t>
+  </si>
+  <si>
+    <t>https://images.media-allrecipes.com/userphotos/250x250/564413.jpg,https://encrypted-tbn0.gstatic.com/images?q=tbn%3AANd9GcReVDzS5a7OGIQrGskHSvQTVfAJ4ce0iGX8sXUXt2JFLAlSjft7</t>
+  </si>
+  <si>
+    <t>6 cups-milk;3 tablespoons-lime,juiced,fresh;2 1/2 cups-sugar;6 cups-water;1 teaspoon-cardamom,ground</t>
+  </si>
+  <si>
+    <t>1 h 50 m</t>
+  </si>
+  <si>
+    <t>"Prep15 m
+Cook35 m
+Ready In1 h 50 m
+Bring the milk to a boil in a heavy-bottomed pan till it starts foaming; immediately add the lime juice and stir. It will curdle right away. You should see the milk solids (chenna) separate from the whey. Pour into a colander lined with cheesecloth; rinse the chenna with cold water to get rid of the lime juice. Allow the water to drain completely.
+Gather the muslin cloth edges like a parcel and express as much water as possible; what you now have is soft paneer. Turn the paneer onto a rolling mat or other smooth surface. Knead the paneer well to make a smooth paste. Roll into a ball and divide into 20 equal portions.
+Bring the water to a boil in a pressure cooker; stir the sugar into the boiling water until dissolved.
+Roll each portion of paneer into a smooth ball between your palms, making sure there are no cracks; gently drop the balls into the hot syrup. Secure the lid onto the pressure cooker and bring to pressure. Reduce heat to medium-low and pressure cook for 6 minutes.
+Release the pressure from the cooker while running under water; remove the lid. The rasgullas should be floating on the syrup and have expanded 2 or 3 times in size. Pour the rasgullas and syrup into a bowl. Gently stir the cardamom into the mixture. Refrigerate to chill completely before serving cold."</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -1182,6 +1207,10 @@
       <color theme="10"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <u/>
+      <color rgb="FF0000FF"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1211,7 +1240,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1225,10 +1254,13 @@
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -1448,7 +1480,8 @@
     <col customWidth="1" min="1" max="1" width="20.5"/>
     <col customWidth="1" min="2" max="2" width="20.13"/>
     <col customWidth="1" min="3" max="3" width="21.5"/>
-    <col customWidth="1" min="4" max="7" width="7.63"/>
+    <col customWidth="1" min="4" max="4" width="75.63"/>
+    <col customWidth="1" min="5" max="7" width="7.63"/>
     <col customWidth="1" min="8" max="8" width="14.5"/>
     <col customWidth="1" min="9" max="9" width="17.88"/>
   </cols>
@@ -1498,7 +1531,7 @@
       <c r="D2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="4" t="s">
         <v>14</v>
       </c>
       <c r="F2" s="4" t="s">
@@ -1521,13 +1554,13 @@
       <c r="B3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>21</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="4" t="s">
         <v>23</v>
       </c>
       <c r="F3" s="5" t="s">
@@ -1550,13 +1583,13 @@
       <c r="B4" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>27</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="4" t="s">
         <v>29</v>
       </c>
       <c r="F4" s="5" t="s">
@@ -1579,13 +1612,13 @@
       <c r="B5" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="7" t="s">
         <v>34</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="4" t="s">
         <v>36</v>
       </c>
       <c r="F5" s="5" t="s">
@@ -1608,13 +1641,13 @@
       <c r="B6" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="7" t="s">
         <v>40</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="4" t="s">
         <v>42</v>
       </c>
       <c r="F6" s="5" t="s">
@@ -1637,13 +1670,13 @@
       <c r="B7" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="7" t="s">
         <v>46</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="4" t="s">
         <v>48</v>
       </c>
       <c r="F7" s="5" t="s">
@@ -1666,13 +1699,13 @@
       <c r="B8" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="7" t="s">
         <v>52</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="4" t="s">
         <v>54</v>
       </c>
       <c r="F8" s="5" t="s">
@@ -1695,13 +1728,13 @@
       <c r="B9" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="7" t="s">
         <v>59</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="4" t="s">
         <v>29</v>
       </c>
       <c r="F9" s="5" t="s">
@@ -1724,13 +1757,13 @@
       <c r="B10" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="7" t="s">
         <v>65</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="4" t="s">
         <v>36</v>
       </c>
       <c r="F10" s="5" t="s">
@@ -1753,13 +1786,13 @@
       <c r="B11" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="7" t="s">
         <v>72</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="4" t="s">
         <v>42</v>
       </c>
       <c r="F11" s="5" t="s">
@@ -1782,13 +1815,13 @@
       <c r="B12" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="7" t="s">
         <v>78</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="4" t="s">
         <v>48</v>
       </c>
       <c r="F12" s="5" t="s">
@@ -1811,13 +1844,13 @@
       <c r="B13" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="7" t="s">
         <v>83</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="4" t="s">
         <v>85</v>
       </c>
       <c r="F13" s="5" t="s">
@@ -1840,13 +1873,13 @@
       <c r="B14" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="7" t="s">
         <v>90</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="4" t="s">
         <v>54</v>
       </c>
       <c r="F14" s="5" t="s">
@@ -1869,13 +1902,13 @@
       <c r="B15" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="7" t="s">
         <v>95</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="4" t="s">
         <v>42</v>
       </c>
       <c r="F15" s="5" t="s">
@@ -1898,13 +1931,13 @@
       <c r="B16" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="7" t="s">
         <v>100</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="4" t="s">
         <v>48</v>
       </c>
       <c r="F16" s="5" t="s">
@@ -1927,13 +1960,13 @@
       <c r="B17" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="7" t="s">
         <v>105</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="4" t="s">
         <v>29</v>
       </c>
       <c r="F17" s="5" t="s">
@@ -1956,13 +1989,13 @@
       <c r="B18" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="7" t="s">
         <v>110</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E18" s="4" t="s">
         <v>112</v>
       </c>
       <c r="F18" s="5" t="s">
@@ -1985,13 +2018,13 @@
       <c r="B19" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="7" t="s">
         <v>116</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E19" s="4" t="s">
         <v>14</v>
       </c>
       <c r="F19" s="5" t="s">
@@ -2014,13 +2047,13 @@
       <c r="B20" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="7" t="s">
         <v>121</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="E20" s="4" t="s">
         <v>123</v>
       </c>
       <c r="F20" s="5" t="s">
@@ -2043,13 +2076,13 @@
       <c r="B21" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="7" t="s">
         <v>127</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="E21" s="4" t="s">
         <v>54</v>
       </c>
       <c r="F21" s="5" t="s">
@@ -2072,13 +2105,13 @@
       <c r="B22" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="7" t="s">
         <v>132</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="E22" s="4" t="s">
         <v>54</v>
       </c>
       <c r="F22" s="5" t="s">
@@ -2101,13 +2134,13 @@
       <c r="B23" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="7" t="s">
         <v>137</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="E23" s="4" t="s">
         <v>139</v>
       </c>
       <c r="F23" s="5" t="s">
@@ -2130,13 +2163,13 @@
       <c r="B24" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="7" t="s">
         <v>143</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="E24" s="4" t="s">
         <v>145</v>
       </c>
       <c r="F24" s="5" t="s">
@@ -2159,13 +2192,13 @@
       <c r="B25" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C25" s="7" t="s">
         <v>149</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="E25" s="4" t="s">
         <v>48</v>
       </c>
       <c r="F25" s="5" t="s">
@@ -2188,13 +2221,13 @@
       <c r="B26" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C26" s="7" t="s">
         <v>154</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="E26" s="4" t="s">
         <v>42</v>
       </c>
       <c r="F26" s="5" t="s">
@@ -2217,13 +2250,13 @@
       <c r="B27" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="7" t="s">
         <v>159</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="E27" s="7" t="s">
+      <c r="E27" s="4" t="s">
         <v>42</v>
       </c>
       <c r="F27" s="5" t="s">
@@ -2246,13 +2279,13 @@
       <c r="B28" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C28" s="7" t="s">
         <v>164</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="E28" s="7" t="s">
+      <c r="E28" s="4" t="s">
         <v>42</v>
       </c>
       <c r="F28" s="5" t="s">
@@ -2275,13 +2308,13 @@
       <c r="B29" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="C29" s="7" t="s">
         <v>169</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="E29" s="4" t="s">
         <v>48</v>
       </c>
       <c r="F29" s="5" t="s">
@@ -2304,7 +2337,7 @@
       <c r="B30" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="C30" s="7" t="s">
         <v>174</v>
       </c>
       <c r="D30" s="4" t="s">
@@ -2333,7 +2366,7 @@
       <c r="B31" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="C31" s="7" t="s">
         <v>179</v>
       </c>
       <c r="D31" s="4" t="s">
@@ -2362,7 +2395,7 @@
       <c r="B32" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="C32" s="7" t="s">
         <v>185</v>
       </c>
       <c r="D32" s="4" t="s">
@@ -2391,7 +2424,7 @@
       <c r="B33" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="C33" s="8" t="s">
+      <c r="C33" s="7" t="s">
         <v>190</v>
       </c>
       <c r="D33" s="4" t="s">
@@ -2420,7 +2453,7 @@
       <c r="B34" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="C34" s="8" t="s">
+      <c r="C34" s="7" t="s">
         <v>196</v>
       </c>
       <c r="D34" s="4" t="s">
@@ -2449,7 +2482,7 @@
       <c r="B35" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="C35" s="8" t="s">
+      <c r="C35" s="7" t="s">
         <v>201</v>
       </c>
       <c r="D35" s="4" t="s">
@@ -2478,7 +2511,7 @@
       <c r="B36" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="C36" s="8" t="s">
+      <c r="C36" s="7" t="s">
         <v>207</v>
       </c>
       <c r="D36" s="4" t="s">
@@ -2507,7 +2540,7 @@
       <c r="B37" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="C37" s="8" t="s">
+      <c r="C37" s="7" t="s">
         <v>212</v>
       </c>
       <c r="D37" s="4" t="s">
@@ -2536,7 +2569,7 @@
       <c r="B38" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="C38" s="8" t="s">
+      <c r="C38" s="7" t="s">
         <v>218</v>
       </c>
       <c r="D38" s="4" t="s">
@@ -2565,7 +2598,7 @@
       <c r="B39" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="C39" s="8" t="s">
+      <c r="C39" s="7" t="s">
         <v>223</v>
       </c>
       <c r="D39" s="4" t="s">
@@ -2594,7 +2627,7 @@
       <c r="B40" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="C40" s="8" t="s">
+      <c r="C40" s="7" t="s">
         <v>229</v>
       </c>
       <c r="D40" s="4" t="s">
@@ -2623,7 +2656,7 @@
       <c r="B41" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="C41" s="8" t="s">
+      <c r="C41" s="7" t="s">
         <v>234</v>
       </c>
       <c r="D41" s="4" t="s">
@@ -2652,7 +2685,7 @@
       <c r="B42" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="C42" s="8" t="s">
+      <c r="C42" s="7" t="s">
         <v>240</v>
       </c>
       <c r="D42" s="4" t="s">
@@ -2681,7 +2714,7 @@
       <c r="B43" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="C43" s="8" t="s">
+      <c r="C43" s="7" t="s">
         <v>245</v>
       </c>
       <c r="D43" s="4" t="s">
@@ -2710,7 +2743,7 @@
       <c r="B44" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="C44" s="8" t="s">
+      <c r="C44" s="7" t="s">
         <v>251</v>
       </c>
       <c r="D44" s="5" t="s">
@@ -2739,7 +2772,7 @@
       <c r="B45" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="C45" s="8" t="s">
+      <c r="C45" s="7" t="s">
         <v>257</v>
       </c>
       <c r="D45" s="4" t="s">
@@ -2768,7 +2801,7 @@
       <c r="B46" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="C46" s="8" t="s">
+      <c r="C46" s="7" t="s">
         <v>262</v>
       </c>
       <c r="D46" s="5" t="s">
@@ -2797,7 +2830,7 @@
       <c r="B47" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="C47" s="8" t="s">
+      <c r="C47" s="7" t="s">
         <v>267</v>
       </c>
       <c r="D47" s="4" t="s">
@@ -2826,7 +2859,7 @@
       <c r="B48" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="C48" s="8" t="s">
+      <c r="C48" s="7" t="s">
         <v>272</v>
       </c>
       <c r="D48" s="4" t="s">
@@ -2856,7 +2889,7 @@
       <c r="B49" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="C49" s="8" t="s">
+      <c r="C49" s="7" t="s">
         <v>279</v>
       </c>
       <c r="D49" s="4" t="s">
@@ -2886,7 +2919,7 @@
       <c r="B50" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="C50" s="8" t="s">
+      <c r="C50" s="7" t="s">
         <v>285</v>
       </c>
       <c r="D50" s="4" t="s">
@@ -2916,7 +2949,7 @@
       <c r="B51" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="C51" s="8" t="s">
+      <c r="C51" s="7" t="s">
         <v>291</v>
       </c>
       <c r="D51" s="4" t="s">
@@ -2940,7 +2973,34 @@
       </c>
     </row>
     <row r="52" ht="15.75" customHeight="1">
+      <c r="A52" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="F52" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="G52" s="8" t="s">
+        <v>275</v>
+      </c>
       <c r="H52" s="5"/>
+      <c r="I52" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="J52" s="8" t="s">
+        <v>276</v>
+      </c>
     </row>
     <row r="53" ht="15.75" customHeight="1"/>
     <row r="54" ht="15.75" customHeight="1"/>
@@ -3889,7 +3949,6 @@
     <row r="997" ht="15.75" customHeight="1"/>
     <row r="998" ht="15.75" customHeight="1"/>
     <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="C2"/>
@@ -3942,10 +4001,11 @@
     <hyperlink r:id="rId48" ref="C49"/>
     <hyperlink r:id="rId49" ref="C50"/>
     <hyperlink r:id="rId50" ref="C51"/>
+    <hyperlink r:id="rId51" ref="C52"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId51"/>
+  <drawing r:id="rId52"/>
 </worksheet>
 </file>